--- a/similarities/split_global/harmonic_similarity_timestamps_109.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_109.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,54 +484,66 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:26.250000', '0:00:39.805000')]</t>
+          <t>('0:00:25.180000', '0:00:55.620000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:09.060000', '0:01:18.700000')]</t>
+          <t>('0:01:52.140000', '0:01:54.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=26.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=69.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=112.14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,641 +553,665 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:01:58.400000', '0:02:02.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:38.689000', '0:00:45.633000')]</t>
+          <t>('0:02:03.220000', '0:02:06.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.160000', '0:00:11.100000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=5.16']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_184</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['G', 'C:min', 'Bb/3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['E', 'A:min', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:01:48.913000', '0:01:54.379000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.899614', '0:00:20.672131')]</t>
+          <t>('0:00:39.201655', '0:00:44.217165')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=108.913</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=8.899614']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=39.201655</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_87</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.080000', '0:00:29.360000'), ('0:01:06.040000', '0:01:11.560000')]</t>
+          <t>('0:00:04.340000', '0:00:18.100000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:59.640000'), ('0:00:39.940000', '0:00:49.640000')]</t>
+          <t>('0:02:17.340000', '0:02:20.480000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=22.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=4.34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=46.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=39.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=137.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:41.370000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D', 'B:min', 'E:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+          <t>('0:00:22.862248', '0:00:25.887570')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:44.300000', '0:01:07.100000')]</t>
+          <t>('0:00:07.580000', '0:00:15.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=22.862248</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=44.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=7.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E/4', 'D/5']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:16.305010')]</t>
+          <t>('0:01:00.436303', '0:01:14.066417')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:34.232000', '0:00:41.784000')]</t>
+          <t>('0:00:09.280000', '0:00:12.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.510000', '0:00:17.230000')]</t>
+          <t>('0:00:08.504874', '0:00:12.870226')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:41.030000', '0:01:07.840000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=8.504874</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=41.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G', 'A:min', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'A:min', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
+          <t>('0:00:27.322000', '0:00:29.835000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:10.664331', '0:00:16.179070')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=62.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=27.322</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=10.664331</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['C/5', 'G:7', 'C/5']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:08.204625', '0:00:15.716281')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:04:31.500000', '0:04:33.280000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=8.204625</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=271.5</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
